--- a/media/templatedocs/supervision-plantilla.xlsx
+++ b/media/templatedocs/supervision-plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Testing\pythonProject1\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosPython\PSCG-Management-Monitoring-and-Control-Platform\media\templatedocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC3048-4F2E-435C-AEDB-07763A9BC40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C5C76-DEE0-4F11-8CD3-6EE2564CFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
   <si>
     <t xml:space="preserve">Número de la Auditoria: </t>
   </si>
@@ -794,6 +794,21 @@
   </si>
   <si>
     <t>DATOS DEL CONTROL INTERNO</t>
+  </si>
+  <si>
+    <t>Realizó Supervisión:</t>
+  </si>
+  <si>
+    <t>Nombre de director</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Nombre del titular</t>
+  </si>
+  <si>
+    <t>Por el Órgano Interno de Control:</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1476,12 +1491,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,6 +1730,219 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1706,6 +1952,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1736,245 +2009,14 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1985,14 +2027,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2003,11 +2042,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2695,440 +2758,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1692088</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4503831</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>70061</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Cuadro de texto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1692088" y="13282892"/>
-          <a:ext cx="6021668" cy="1750944"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Realizó</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Supervisión:</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>________________________________________________________</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>L.C.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> ALEJANDRO ALTAMIRA SALAZAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DIRECTOR DE COORDINACIÓN DE ÓRGANOS INTERNOS DE CONTROL SECTORIAL "C"</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>239058</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>23344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447833</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Cuadro de texto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9573558" y="13272619"/>
-          <a:ext cx="7333475" cy="1803215"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Por el Órgano Interno de Control </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>_____________________________________________________________________</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>LIC. MICHEL ADRIÁN MONTAÑO LÓPEZ                                                                                                               </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>TITULAR DEL ÓRGANO INTERNO DE CONTROL EN EL INSTITUTO DEL DEPORTE DE LA CIUDAD DE MÉXICO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1400">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -3337,458 +2966,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1497853</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4612154</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>13097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Cuadro de texto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1497853" y="12578043"/>
-          <a:ext cx="6009901" cy="1693979"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Realizó</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Supervisión:</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>________________________________________________________</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>L.C.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> ALEJANDRO ALTAMIRA SALAZAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DIRECTOR DE COORDINACIÓN DE ÓRGANOS INTERNOS DE CONTROL SECTORIAL "C"</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>556156</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Cuadro de texto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9433111" y="12555631"/>
-          <a:ext cx="7334595" cy="1736910"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Por el Órgano Interno de Control </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>_____________________________________________________________________                                       </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>LIC.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> MICHEL ADRIÁN MONTAÑO LÓPEZ                                                                                                             </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>TITULAR DEL ÓRGANO INTERNO DE CONTROL EN EL  INSTITUTO DEL DEPORTE DE LA CIUDAD DE MÉXICO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3897,403 +3074,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1524001</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4638302</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Cuadro de texto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762001" y="23341853"/>
-          <a:ext cx="1523626" cy="1501587"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Realizó</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Supervisión:</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>___________________________________________</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>L.C.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> ALEJANDRO ALTAMIRA SALAZAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DIRECTOR DE COORDINACIÓN DE ÓRGANOS INTERNOS DE CONTROL SECTORIAL "C"</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>114459</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1086970</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>41572</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Cuadro de texto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3170464" y="23355459"/>
-          <a:ext cx="5974656" cy="1451113"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Por el Órgano Interno de Control </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>________________________________________________________________</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>LIC.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> MICHEL ADRIÁN MONTAÑO LÓPEZ                                                                                                             </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>TITULAR DEL ÓRGANO INTERNO DE CONTROL EN EL  INSTITUTO DEL DEPORTE DE LA CIUDAD DE MÉXICO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4643,10 +3423,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A2:O124"/>
+  <dimension ref="A2:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C115" zoomScale="92" zoomScaleNormal="60" zoomScaleSheetLayoutView="45" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A119" zoomScale="92" zoomScaleNormal="60" zoomScaleSheetLayoutView="45" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4667,21 +3447,21 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:14" ht="27" thickBot="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
@@ -4699,21 +3479,21 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="168"/>
     </row>
     <row r="10" spans="1:14">
       <c r="L10" s="3"/>
@@ -4726,16 +3506,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="68"/>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="162"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="2"/>
@@ -4744,21 +3524,21 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
@@ -4774,16 +3554,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="53"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="162"/>
     </row>
     <row r="16" spans="1:14" ht="9.75" customHeight="1">
       <c r="A16" s="18"/>
@@ -4796,16 +3576,16 @@
       <c r="B17" s="9"/>
       <c r="C17" s="69"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="153"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="10"/>
@@ -4821,21 +3601,21 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="72.75" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="159"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
@@ -4848,16 +3628,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="70"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="162"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2"/>
@@ -4865,21 +3645,21 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="19.5">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" thickBot="1">
       <c r="A24" s="13"/>
@@ -4893,42 +3673,42 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="138" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="H25" s="100" t="s">
+      <c r="F25" s="141"/>
+      <c r="H25" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="144"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="101"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="137"/>
+      <c r="C26" s="139"/>
       <c r="E26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="H26" s="137"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" thickBot="1">
       <c r="A27" s="21"/>
@@ -4955,7 +3735,7 @@
       <c r="M28" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="95" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -4967,13 +3747,13 @@
         <f>COUNTIF(E30:F30,"r")</f>
         <v>0</v>
       </c>
-      <c r="J30" s="112"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="133"/>
     </row>
     <row r="31" spans="1:13" ht="60" customHeight="1">
-      <c r="A31" s="116"/>
+      <c r="A31" s="134"/>
       <c r="C31" s="35" t="s">
         <v>42</v>
       </c>
@@ -4983,13 +3763,13 @@
         <f t="shared" ref="H31:H33" si="0">COUNTIF(E31:F31,"r")</f>
         <v>0</v>
       </c>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
     </row>
     <row r="32" spans="1:13" ht="53.25" customHeight="1">
-      <c r="A32" s="116"/>
+      <c r="A32" s="134"/>
       <c r="C32" s="35" t="s">
         <v>43</v>
       </c>
@@ -4999,13 +3779,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="112"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="114"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="133"/>
     </row>
     <row r="33" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="134"/>
       <c r="C33" s="35" t="s">
         <v>44</v>
       </c>
@@ -5015,10 +3795,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="112"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="114"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="133"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" thickBot="1">
       <c r="C34" s="55"/>
@@ -5033,7 +3813,7 @@
       <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -5045,13 +3825,13 @@
         <f>COUNTIF(E37:F37,"r")</f>
         <v>0</v>
       </c>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="133"/>
     </row>
     <row r="38" spans="1:13" ht="23.25">
-      <c r="A38" s="117"/>
+      <c r="A38" s="96"/>
       <c r="C38" s="35" t="s">
         <v>46</v>
       </c>
@@ -5061,13 +3841,13 @@
         <f t="shared" ref="H38:H46" si="1">COUNTIF(E38:F38,"r")</f>
         <v>0</v>
       </c>
-      <c r="J38" s="112"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="114"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="39" spans="1:13" ht="23.25">
-      <c r="A39" s="117"/>
+      <c r="A39" s="96"/>
       <c r="C39" s="35" t="s">
         <v>47</v>
       </c>
@@ -5077,13 +3857,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="112"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="133"/>
     </row>
     <row r="40" spans="1:13" ht="23.25">
-      <c r="A40" s="117"/>
+      <c r="A40" s="96"/>
       <c r="C40" s="35" t="s">
         <v>48</v>
       </c>
@@ -5093,13 +3873,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="112"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="114"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="133"/>
     </row>
     <row r="41" spans="1:13" ht="23.25">
-      <c r="A41" s="117"/>
+      <c r="A41" s="96"/>
       <c r="C41" s="35" t="s">
         <v>49</v>
       </c>
@@ -5109,13 +3889,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="112"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="133"/>
     </row>
     <row r="42" spans="1:13" ht="47.25">
-      <c r="A42" s="117"/>
+      <c r="A42" s="96"/>
       <c r="C42" s="35" t="s">
         <v>50</v>
       </c>
@@ -5125,13 +3905,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="112"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="114"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="133"/>
     </row>
     <row r="43" spans="1:13" ht="47.25">
-      <c r="A43" s="117"/>
+      <c r="A43" s="96"/>
       <c r="C43" s="35" t="s">
         <v>51</v>
       </c>
@@ -5141,13 +3921,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="112"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="114"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="133"/>
     </row>
     <row r="44" spans="1:13" ht="31.5">
-      <c r="A44" s="117"/>
+      <c r="A44" s="96"/>
       <c r="C44" s="35" t="s">
         <v>52</v>
       </c>
@@ -5157,13 +3937,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="112"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="114"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="133"/>
     </row>
     <row r="45" spans="1:13" ht="31.5">
-      <c r="A45" s="117"/>
+      <c r="A45" s="96"/>
       <c r="C45" s="35" t="s">
         <v>53</v>
       </c>
@@ -5173,13 +3953,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="112"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="133"/>
     </row>
     <row r="46" spans="1:13" ht="23.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="97"/>
       <c r="C46" s="35" t="s">
         <v>54</v>
       </c>
@@ -5189,10 +3969,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="112"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="114"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="24"/>
@@ -5203,7 +3983,7 @@
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A48" s="119" t="s">
+      <c r="A48" s="126" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="58" t="s">
@@ -5212,27 +3992,27 @@
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="H48" s="34"/>
-      <c r="J48" s="120" t="s">
+      <c r="J48" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="122"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="94"/>
     </row>
     <row r="49" spans="1:13" ht="31.5">
-      <c r="A49" s="119"/>
+      <c r="A49" s="126"/>
       <c r="C49" s="58" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="H49" s="34"/>
-      <c r="J49" s="120" t="s">
+      <c r="J49" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="K49" s="121"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="94"/>
     </row>
     <row r="50" spans="1:13" ht="12" customHeight="1" thickBot="1">
       <c r="A50" s="24"/>
@@ -5253,13 +4033,13 @@
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
       <c r="H52" s="43"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
     </row>
     <row r="53" spans="1:13" ht="23.25">
-      <c r="A53" s="124" t="s">
+      <c r="A53" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -5271,13 +4051,13 @@
         <f>COUNTIF(E53:F53,"r")</f>
         <v>0</v>
       </c>
-      <c r="J53" s="127"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="129"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="103"/>
     </row>
     <row r="54" spans="1:13" ht="31.5">
-      <c r="A54" s="125"/>
+      <c r="A54" s="129"/>
       <c r="C54" s="59" t="s">
         <v>56</v>
       </c>
@@ -5287,13 +4067,13 @@
         <f t="shared" ref="H54:H56" si="2">COUNTIF(E54:F54,"r")</f>
         <v>0</v>
       </c>
-      <c r="J54" s="130"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="132"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="129"/>
       <c r="C55" s="59" t="s">
         <v>57</v>
       </c>
@@ -5303,13 +4083,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J55" s="130"/>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="132"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
     </row>
     <row r="56" spans="1:13" ht="31.5">
-      <c r="A56" s="126"/>
+      <c r="A56" s="130"/>
       <c r="C56" s="59" t="s">
         <v>58</v>
       </c>
@@ -5319,10 +4099,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J56" s="133"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="135"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="109"/>
     </row>
     <row r="57" spans="1:13" ht="25.5" customHeight="1">
       <c r="A57" s="41"/>
@@ -5335,7 +4115,7 @@
       <c r="M57" s="39"/>
     </row>
     <row r="58" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="76" t="s">
@@ -5347,13 +4127,13 @@
         <f>COUNTIF(E58:F58,"r")</f>
         <v>0</v>
       </c>
-      <c r="J58" s="136"/>
-      <c r="K58" s="137"/>
-      <c r="L58" s="137"/>
-      <c r="M58" s="138"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="112"/>
     </row>
     <row r="59" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A59" s="117"/>
+      <c r="A59" s="96"/>
       <c r="C59" s="59" t="s">
         <v>60</v>
       </c>
@@ -5363,13 +4143,13 @@
         <f t="shared" ref="H59:H63" si="3">COUNTIF(E59:F59,"r")</f>
         <v>0</v>
       </c>
-      <c r="J59" s="139"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="141"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="115"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1">
-      <c r="A60" s="117"/>
+      <c r="A60" s="96"/>
       <c r="C60" s="59" t="s">
         <v>61</v>
       </c>
@@ -5379,13 +4159,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="139"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="141"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="115"/>
     </row>
     <row r="61" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A61" s="117"/>
+      <c r="A61" s="96"/>
       <c r="C61" s="59" t="s">
         <v>62</v>
       </c>
@@ -5395,13 +4175,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="139"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="141"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="115"/>
     </row>
     <row r="62" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A62" s="117"/>
+      <c r="A62" s="96"/>
       <c r="C62" s="59" t="s">
         <v>63</v>
       </c>
@@ -5411,13 +4191,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J62" s="139"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="141"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="115"/>
     </row>
     <row r="63" spans="1:13" ht="23.25">
-      <c r="A63" s="118"/>
+      <c r="A63" s="97"/>
       <c r="C63" s="59" t="s">
         <v>64</v>
       </c>
@@ -5427,10 +4207,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J63" s="142"/>
-      <c r="K63" s="143"/>
-      <c r="L63" s="143"/>
-      <c r="M63" s="144"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="118"/>
     </row>
     <row r="64" spans="1:13" ht="23.25">
       <c r="A64" s="21"/>
@@ -5443,7 +4223,7 @@
       <c r="M64" s="39"/>
     </row>
     <row r="65" spans="1:13" ht="23.25">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="95" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="35" t="s">
@@ -5455,15 +4235,15 @@
         <f>COUNTIF(E65:F65,"r")</f>
         <v>0</v>
       </c>
-      <c r="J65" s="127" t="s">
+      <c r="J65" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="K65" s="128"/>
-      <c r="L65" s="128"/>
-      <c r="M65" s="129"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="103"/>
     </row>
     <row r="66" spans="1:13" ht="23.25">
-      <c r="A66" s="117"/>
+      <c r="A66" s="96"/>
       <c r="C66" s="59" t="s">
         <v>66</v>
       </c>
@@ -5473,13 +4253,13 @@
         <f t="shared" ref="H66:H67" si="4">COUNTIF(E66:F66,"r")</f>
         <v>0</v>
       </c>
-      <c r="J66" s="130"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="132"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
+      <c r="M66" s="106"/>
     </row>
     <row r="67" spans="1:13" ht="23.25">
-      <c r="A67" s="118"/>
+      <c r="A67" s="97"/>
       <c r="C67" s="59" t="s">
         <v>67</v>
       </c>
@@ -5489,10 +4269,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J67" s="133"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="135"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="109"/>
     </row>
     <row r="68" spans="1:13" ht="23.25">
       <c r="A68" s="21"/>
@@ -5505,7 +4285,7 @@
       <c r="M68" s="39"/>
     </row>
     <row r="69" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A69" s="145" t="s">
+      <c r="A69" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C69" s="35" t="s">
@@ -5517,13 +4297,13 @@
         <f>COUNTIF(E69:F69,"r")</f>
         <v>0</v>
       </c>
-      <c r="J69" s="146"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="148"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="121"/>
+      <c r="L69" s="121"/>
+      <c r="M69" s="122"/>
     </row>
     <row r="70" spans="1:13" ht="31.5">
-      <c r="A70" s="145"/>
+      <c r="A70" s="119"/>
       <c r="C70" s="59" t="s">
         <v>61</v>
       </c>
@@ -5533,13 +4313,13 @@
         <f t="shared" ref="H70:H73" si="5">COUNTIF(E70:F70,"r")</f>
         <v>0</v>
       </c>
-      <c r="J70" s="149"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="151"/>
+      <c r="J70" s="123"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="125"/>
     </row>
     <row r="71" spans="1:13" ht="31.5">
-      <c r="A71" s="145"/>
+      <c r="A71" s="119"/>
       <c r="C71" s="59" t="s">
         <v>69</v>
       </c>
@@ -5549,13 +4329,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="149"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="151"/>
+      <c r="J71" s="123"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="125"/>
     </row>
     <row r="72" spans="1:13" ht="23.25">
-      <c r="A72" s="145"/>
+      <c r="A72" s="119"/>
       <c r="C72" s="59" t="s">
         <v>70</v>
       </c>
@@ -5565,13 +4345,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="149"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="151"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="125"/>
     </row>
     <row r="73" spans="1:13" ht="23.25">
-      <c r="A73" s="145"/>
+      <c r="A73" s="119"/>
       <c r="C73" s="59" t="s">
         <v>104</v>
       </c>
@@ -5581,10 +4361,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="149"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="151"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="125"/>
     </row>
     <row r="74" spans="1:13" ht="23.25">
       <c r="A74" s="36"/>
@@ -5597,7 +4377,7 @@
       <c r="M74" s="39"/>
     </row>
     <row r="75" spans="1:13" ht="23.25">
-      <c r="A75" s="115" t="s">
+      <c r="A75" s="95" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="35" t="s">
@@ -5609,13 +4389,13 @@
         <f>COUNTIF(E75:F75,"r")</f>
         <v>0</v>
       </c>
-      <c r="J75" s="127"/>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="129"/>
+      <c r="J75" s="101"/>
+      <c r="K75" s="102"/>
+      <c r="L75" s="102"/>
+      <c r="M75" s="103"/>
     </row>
     <row r="76" spans="1:13" ht="23.25">
-      <c r="A76" s="117"/>
+      <c r="A76" s="96"/>
       <c r="C76" s="59" t="s">
         <v>72</v>
       </c>
@@ -5625,13 +4405,13 @@
         <f t="shared" ref="H76:H78" si="6">COUNTIF(E76:F76,"r")</f>
         <v>0</v>
       </c>
-      <c r="J76" s="130"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="132"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="106"/>
     </row>
     <row r="77" spans="1:13" ht="23.25">
-      <c r="A77" s="117"/>
+      <c r="A77" s="96"/>
       <c r="C77" s="59" t="s">
         <v>73</v>
       </c>
@@ -5641,13 +4421,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J77" s="130"/>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="132"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="106"/>
     </row>
     <row r="78" spans="1:13" ht="31.5">
-      <c r="A78" s="118"/>
+      <c r="A78" s="97"/>
       <c r="C78" s="59" t="s">
         <v>74</v>
       </c>
@@ -5657,10 +4437,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J78" s="133"/>
-      <c r="K78" s="134"/>
-      <c r="L78" s="134"/>
-      <c r="M78" s="135"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="109"/>
     </row>
     <row r="79" spans="1:13" ht="23.25">
       <c r="A79" s="36"/>
@@ -5673,7 +4453,7 @@
       <c r="M79" s="39"/>
     </row>
     <row r="80" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A80" s="115" t="s">
+      <c r="A80" s="95" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="35" t="s">
@@ -5685,13 +4465,13 @@
         <f>COUNTIF(E80:F80,"r")</f>
         <v>0</v>
       </c>
-      <c r="J80" s="152"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="153"/>
-      <c r="M80" s="154"/>
+      <c r="J80" s="81"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="83"/>
     </row>
     <row r="81" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A81" s="117"/>
+      <c r="A81" s="96"/>
       <c r="C81" s="59" t="s">
         <v>77</v>
       </c>
@@ -5701,13 +4481,13 @@
         <f t="shared" ref="H81:H90" si="7">COUNTIF(E81:F81,"r")</f>
         <v>0</v>
       </c>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="154"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="83"/>
     </row>
     <row r="82" spans="1:13" ht="51" customHeight="1">
-      <c r="A82" s="117"/>
+      <c r="A82" s="96"/>
       <c r="C82" s="35" t="s">
         <v>78</v>
       </c>
@@ -5717,13 +4497,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="120"/>
-      <c r="K82" s="121"/>
-      <c r="L82" s="121"/>
-      <c r="M82" s="122"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="94"/>
     </row>
     <row r="83" spans="1:13" ht="23.25">
-      <c r="A83" s="117"/>
+      <c r="A83" s="96"/>
       <c r="C83" s="59" t="s">
         <v>79</v>
       </c>
@@ -5733,13 +4513,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="152"/>
-      <c r="K83" s="153"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="154"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="82"/>
+      <c r="M83" s="83"/>
     </row>
     <row r="84" spans="1:13" ht="31.5">
-      <c r="A84" s="118"/>
+      <c r="A84" s="97"/>
       <c r="C84" s="35" t="s">
         <v>80</v>
       </c>
@@ -5749,10 +4529,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="152"/>
-      <c r="K84" s="153"/>
-      <c r="L84" s="153"/>
-      <c r="M84" s="154"/>
+      <c r="J84" s="81"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="83"/>
     </row>
     <row r="85" spans="1:13" ht="23.25">
       <c r="A85" s="36"/>
@@ -5765,7 +4545,7 @@
       <c r="M85" s="39"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1">
-      <c r="A86" s="115" t="s">
+      <c r="A86" s="95" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="35" t="s">
@@ -5777,13 +4557,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="155"/>
-      <c r="K86" s="156"/>
-      <c r="L86" s="156"/>
-      <c r="M86" s="157"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="99"/>
+      <c r="L86" s="99"/>
+      <c r="M86" s="100"/>
     </row>
     <row r="87" spans="1:13" ht="31.5">
-      <c r="A87" s="117"/>
+      <c r="A87" s="96"/>
       <c r="C87" s="59" t="s">
         <v>77</v>
       </c>
@@ -5793,13 +4573,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="155"/>
-      <c r="K87" s="156"/>
-      <c r="L87" s="156"/>
-      <c r="M87" s="157"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="99"/>
+      <c r="M87" s="100"/>
     </row>
     <row r="88" spans="1:13" ht="48" customHeight="1">
-      <c r="A88" s="117"/>
+      <c r="A88" s="96"/>
       <c r="C88" s="35" t="s">
         <v>78</v>
       </c>
@@ -5809,13 +4589,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="155"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="156"/>
-      <c r="M88" s="157"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="100"/>
     </row>
     <row r="89" spans="1:13" ht="23.25">
-      <c r="A89" s="117"/>
+      <c r="A89" s="96"/>
       <c r="C89" s="59" t="s">
         <v>79</v>
       </c>
@@ -5825,13 +4605,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J89" s="155"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="157"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="100"/>
     </row>
     <row r="90" spans="1:13" ht="31.5">
-      <c r="A90" s="118"/>
+      <c r="A90" s="97"/>
       <c r="C90" s="35" t="s">
         <v>62</v>
       </c>
@@ -5841,10 +4621,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J90" s="155"/>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="157"/>
+      <c r="J90" s="98"/>
+      <c r="K90" s="99"/>
+      <c r="L90" s="99"/>
+      <c r="M90" s="100"/>
     </row>
     <row r="91" spans="1:13" ht="23.25">
       <c r="A91" s="36"/>
@@ -5869,10 +4649,10 @@
         <f>COUNTIF(E92:F92,"r")</f>
         <v>0</v>
       </c>
-      <c r="J92" s="152"/>
-      <c r="K92" s="153"/>
-      <c r="L92" s="153"/>
-      <c r="M92" s="154"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="82"/>
+      <c r="L92" s="82"/>
+      <c r="M92" s="83"/>
     </row>
     <row r="93" spans="1:13" ht="11.25" customHeight="1">
       <c r="C93" s="55"/>
@@ -5890,16 +4670,16 @@
         <f>COUNTIF(E94:F94,"r")</f>
         <v>0</v>
       </c>
-      <c r="J94" s="152"/>
-      <c r="K94" s="153"/>
-      <c r="L94" s="153"/>
-      <c r="M94" s="154"/>
+      <c r="J94" s="81"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
+      <c r="M94" s="83"/>
     </row>
     <row r="95" spans="1:13" ht="18" customHeight="1">
       <c r="C95" s="55"/>
     </row>
     <row r="96" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A96" s="158" t="s">
+      <c r="A96" s="89" t="s">
         <v>87</v>
       </c>
       <c r="B96" s="45"/>
@@ -5912,13 +4692,13 @@
         <f>COUNTIF(E96:F96,"r")</f>
         <v>0</v>
       </c>
-      <c r="J96" s="152"/>
-      <c r="K96" s="153"/>
-      <c r="L96" s="153"/>
-      <c r="M96" s="154"/>
+      <c r="J96" s="81"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="83"/>
     </row>
     <row r="97" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A97" s="159"/>
+      <c r="A97" s="90"/>
       <c r="C97" s="59" t="s">
         <v>91</v>
       </c>
@@ -5928,13 +4708,13 @@
         <f t="shared" ref="H97:H103" si="8">COUNTIF(E97:F97,"r")</f>
         <v>0</v>
       </c>
-      <c r="J97" s="152"/>
-      <c r="K97" s="153"/>
-      <c r="L97" s="153"/>
-      <c r="M97" s="154"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="82"/>
+      <c r="L97" s="82"/>
+      <c r="M97" s="83"/>
     </row>
     <row r="98" spans="1:15" ht="33" customHeight="1">
-      <c r="A98" s="159"/>
+      <c r="A98" s="90"/>
       <c r="C98" s="59" t="s">
         <v>92</v>
       </c>
@@ -5944,13 +4724,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J98" s="120"/>
-      <c r="K98" s="121"/>
-      <c r="L98" s="121"/>
-      <c r="M98" s="122"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="93"/>
+      <c r="L98" s="93"/>
+      <c r="M98" s="94"/>
     </row>
     <row r="99" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A99" s="159"/>
+      <c r="A99" s="90"/>
       <c r="C99" s="59" t="s">
         <v>93</v>
       </c>
@@ -5960,13 +4740,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J99" s="152"/>
-      <c r="K99" s="153"/>
-      <c r="L99" s="153"/>
-      <c r="M99" s="154"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="82"/>
+      <c r="L99" s="82"/>
+      <c r="M99" s="83"/>
     </row>
     <row r="100" spans="1:15" ht="33" customHeight="1">
-      <c r="A100" s="159"/>
+      <c r="A100" s="90"/>
       <c r="C100" s="59" t="s">
         <v>94</v>
       </c>
@@ -5976,13 +4756,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J100" s="152"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="154"/>
+      <c r="J100" s="81"/>
+      <c r="K100" s="82"/>
+      <c r="L100" s="82"/>
+      <c r="M100" s="83"/>
     </row>
     <row r="101" spans="1:15" ht="204.75">
-      <c r="A101" s="159"/>
+      <c r="A101" s="90"/>
       <c r="C101" s="59" t="s">
         <v>161</v>
       </c>
@@ -5992,13 +4772,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J101" s="152"/>
-      <c r="K101" s="153"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="154"/>
+      <c r="J101" s="81"/>
+      <c r="K101" s="82"/>
+      <c r="L101" s="82"/>
+      <c r="M101" s="83"/>
     </row>
     <row r="102" spans="1:15" ht="33" customHeight="1">
-      <c r="A102" s="159"/>
+      <c r="A102" s="90"/>
       <c r="C102" s="59" t="s">
         <v>95</v>
       </c>
@@ -6008,13 +4788,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J102" s="152"/>
-      <c r="K102" s="153"/>
-      <c r="L102" s="153"/>
-      <c r="M102" s="154"/>
+      <c r="J102" s="81"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="83"/>
     </row>
     <row r="103" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A103" s="160"/>
+      <c r="A103" s="91"/>
       <c r="C103" s="59" t="s">
         <v>96</v>
       </c>
@@ -6025,10 +4805,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J103" s="152"/>
-      <c r="K103" s="153"/>
-      <c r="L103" s="153"/>
-      <c r="M103" s="154"/>
+      <c r="J103" s="81"/>
+      <c r="K103" s="82"/>
+      <c r="L103" s="82"/>
+      <c r="M103" s="83"/>
       <c r="N103" s="44"/>
       <c r="O103" s="44"/>
     </row>
@@ -6057,10 +4837,10 @@
         <f>COUNTIF(E107:F107,"r")</f>
         <v>0</v>
       </c>
-      <c r="J107" s="152"/>
-      <c r="K107" s="153"/>
-      <c r="L107" s="153"/>
-      <c r="M107" s="154"/>
+      <c r="J107" s="81"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="83"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" thickBot="1">
       <c r="C108" s="55"/>
@@ -6087,10 +4867,10 @@
         <f>COUNTIF(E111:F111,"r")</f>
         <v>0</v>
       </c>
-      <c r="J111" s="165"/>
-      <c r="K111" s="166"/>
-      <c r="L111" s="166"/>
-      <c r="M111" s="167"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="85"/>
+      <c r="M111" s="86"/>
     </row>
     <row r="112" spans="1:15" ht="15.75">
       <c r="C112" s="62"/>
@@ -6108,10 +4888,10 @@
         <f>COUNTIF(E113:F113,"r")</f>
         <v>0</v>
       </c>
-      <c r="J113" s="152"/>
-      <c r="K113" s="153"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="154"/>
+      <c r="J113" s="81"/>
+      <c r="K113" s="82"/>
+      <c r="L113" s="82"/>
+      <c r="M113" s="83"/>
     </row>
     <row r="114" spans="1:13" ht="15.75">
       <c r="C114" s="62"/>
@@ -6129,30 +4909,30 @@
         <f>COUNTIF(E115:F115,"r")</f>
         <v>0</v>
       </c>
-      <c r="J115" s="165"/>
-      <c r="K115" s="166"/>
-      <c r="L115" s="166"/>
-      <c r="M115" s="167"/>
+      <c r="J115" s="84"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="86"/>
     </row>
     <row r="119" spans="1:13" ht="21">
       <c r="D119" s="8"/>
-      <c r="E119" s="168" t="s">
+      <c r="E119" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="168"/>
+      <c r="F119" s="87"/>
       <c r="H119" s="30"/>
-      <c r="J119" s="169" t="s">
+      <c r="J119" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K119" s="169"/>
-      <c r="L119" s="169"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
     </row>
     <row r="120" spans="1:13" ht="21">
       <c r="D120" s="8"/>
-      <c r="E120" s="161" t="s">
+      <c r="E120" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="161"/>
+      <c r="F120" s="77"/>
       <c r="H120" s="31"/>
       <c r="J120" s="28" t="s">
         <v>33</v>
@@ -6166,10 +4946,10 @@
     </row>
     <row r="121" spans="1:13" ht="21">
       <c r="D121" s="8"/>
-      <c r="E121" s="162" t="s">
+      <c r="E121" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="F121" s="163"/>
+      <c r="F121" s="79"/>
       <c r="H121" s="32"/>
       <c r="J121" s="28" t="s">
         <v>29</v>
@@ -6183,10 +4963,10 @@
     </row>
     <row r="122" spans="1:13" ht="21">
       <c r="D122" s="8"/>
-      <c r="E122" s="164" t="s">
+      <c r="E122" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="164"/>
+      <c r="F122" s="80"/>
       <c r="H122" s="33"/>
       <c r="J122" s="28" t="s">
         <v>28</v>
@@ -6200,64 +4980,144 @@
     </row>
     <row r="123" spans="1:13">
       <c r="D123" s="8"/>
-      <c r="E123" s="164" t="s">
+      <c r="E123" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="F123" s="164"/>
+      <c r="F123" s="80"/>
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:13">
       <c r="D124" s="8"/>
     </row>
+    <row r="127" spans="1:13">
+      <c r="B127" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="184"/>
+      <c r="E127" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" s="182"/>
+      <c r="G127" s="182"/>
+      <c r="H127" s="182"/>
+      <c r="I127" s="182"/>
+      <c r="J127" s="182"/>
+      <c r="K127" s="189"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="B128" s="183"/>
+      <c r="C128" s="183"/>
+      <c r="E128" s="183"/>
+      <c r="F128" s="183"/>
+      <c r="G128" s="183"/>
+      <c r="H128" s="183"/>
+      <c r="I128" s="183"/>
+      <c r="J128" s="183"/>
+      <c r="K128" s="50"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="183"/>
+      <c r="C129" s="183"/>
+      <c r="E129" s="183"/>
+      <c r="F129" s="183"/>
+      <c r="G129" s="183"/>
+      <c r="H129" s="183"/>
+      <c r="I129" s="183"/>
+      <c r="J129" s="183"/>
+      <c r="K129" s="50"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="183"/>
+      <c r="C130" s="183"/>
+      <c r="E130" s="183"/>
+      <c r="F130" s="183"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="183"/>
+      <c r="I130" s="183"/>
+      <c r="J130" s="183"/>
+      <c r="K130" s="50"/>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="183"/>
+      <c r="C131" s="183"/>
+      <c r="E131" s="190"/>
+      <c r="F131" s="190"/>
+      <c r="G131" s="190"/>
+      <c r="H131" s="190"/>
+      <c r="I131" s="190"/>
+      <c r="J131" s="190"/>
+      <c r="K131" s="50"/>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="186"/>
+      <c r="E132" s="188" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" s="188"/>
+      <c r="G132" s="188"/>
+      <c r="H132" s="188"/>
+      <c r="I132" s="188"/>
+      <c r="J132" s="188"/>
+      <c r="K132" s="191"/>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="183"/>
+      <c r="E133" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="F133" s="183"/>
+      <c r="G133" s="183"/>
+      <c r="H133" s="183"/>
+      <c r="I133" s="183"/>
+      <c r="J133" s="183"/>
+      <c r="K133" s="187"/>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="183"/>
+      <c r="C134" s="183"/>
+      <c r="E134" s="183"/>
+      <c r="F134" s="183"/>
+      <c r="G134" s="183"/>
+      <c r="H134" s="183"/>
+      <c r="I134" s="183"/>
+      <c r="J134" s="183"/>
+      <c r="K134" s="187"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="J75:M78"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="J58:M63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="J65:M67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="J69:M73"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="J53:M56"/>
+  <mergeCells count="90">
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="E128:J131"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="E133:J134"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J25:M26"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="J30:M30"/>
@@ -6274,25 +5134,53 @@
     <mergeCell ref="J43:M43"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="J53:M56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="J58:M63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="J65:M67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="J69:M73"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="J75:M78"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="J119:L119"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:H33 H69:H73">
     <cfRule type="cellIs" dxfId="85" priority="37" operator="lessThan">
@@ -6430,10 +5318,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A2:N101"/>
+  <dimension ref="A2:N112"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C99" zoomScale="81" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6456,21 +5344,21 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:14" ht="27" thickBot="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
@@ -6488,21 +5376,21 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="168"/>
     </row>
     <row r="10" spans="1:14">
       <c r="L10" s="3"/>
@@ -6515,16 +5403,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="68"/>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="162"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="2"/>
@@ -6533,21 +5421,21 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
@@ -6563,16 +5451,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="53"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="162"/>
     </row>
     <row r="16" spans="1:14" ht="9.75" customHeight="1">
       <c r="A16" s="18"/>
@@ -6585,16 +5473,16 @@
       <c r="B17" s="9"/>
       <c r="C17" s="71"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="153"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="10"/>
@@ -6610,21 +5498,21 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="84.75" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="159"/>
     </row>
     <row r="20" spans="1:13" ht="27.75" customHeight="1">
       <c r="A20" s="2"/>
@@ -6637,16 +5525,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="162"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="2"/>
@@ -6654,21 +5542,21 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" thickBot="1">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="168"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" thickBot="1">
       <c r="A24" s="13"/>
@@ -6682,42 +5570,42 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="138" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="H25" s="100" t="s">
+      <c r="F25" s="141"/>
+      <c r="H25" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="144"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="101"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="137"/>
+      <c r="C26" s="139"/>
       <c r="E26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="H26" s="137"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" thickBot="1">
       <c r="A27" s="21"/>
@@ -6744,7 +5632,7 @@
       <c r="M28" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="87.75" customHeight="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="173" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6756,13 +5644,13 @@
         <f>COUNTIF(E30:F30,"r")</f>
         <v>0</v>
       </c>
-      <c r="J30" s="112"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="133"/>
     </row>
     <row r="31" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A31" s="171"/>
+      <c r="A31" s="174"/>
       <c r="C31" s="35" t="s">
         <v>107</v>
       </c>
@@ -6772,10 +5660,10 @@
         <f>COUNTIF(E31:F31,"r")</f>
         <v>0</v>
       </c>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
     </row>
     <row r="32" spans="1:13" ht="24" thickBot="1">
       <c r="A32" s="49"/>
@@ -6807,7 +5695,7 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:13" ht="23.25">
-      <c r="A35" s="170" t="s">
+      <c r="A35" s="173" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -6819,13 +5707,13 @@
         <f>COUNTIF(E35:F35,"r")</f>
         <v>0</v>
       </c>
-      <c r="J35" s="112"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="114"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="133"/>
     </row>
     <row r="36" spans="1:13" ht="23.25">
-      <c r="A36" s="172"/>
+      <c r="A36" s="175"/>
       <c r="C36" s="35" t="s">
         <v>60</v>
       </c>
@@ -6841,7 +5729,7 @@
       <c r="M36" s="67"/>
     </row>
     <row r="37" spans="1:13" ht="23.25">
-      <c r="A37" s="172"/>
+      <c r="A37" s="175"/>
       <c r="C37" s="35" t="s">
         <v>110</v>
       </c>
@@ -6857,7 +5745,7 @@
       <c r="M37" s="67"/>
     </row>
     <row r="38" spans="1:13" ht="47.25">
-      <c r="A38" s="172"/>
+      <c r="A38" s="175"/>
       <c r="C38" s="35" t="s">
         <v>111</v>
       </c>
@@ -6867,13 +5755,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="112"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="114"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="39" spans="1:13" ht="31.5">
-      <c r="A39" s="172"/>
+      <c r="A39" s="175"/>
       <c r="C39" s="35" t="s">
         <v>112</v>
       </c>
@@ -6883,13 +5771,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="112"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="133"/>
     </row>
     <row r="40" spans="1:13" ht="23.25">
-      <c r="A40" s="171"/>
+      <c r="A40" s="174"/>
       <c r="C40" s="35" t="s">
         <v>113</v>
       </c>
@@ -6899,10 +5787,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="112"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="114"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="133"/>
     </row>
     <row r="41" spans="1:13">
       <c r="E41" s="50"/>
@@ -6910,7 +5798,7 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="23.25">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="95" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -6922,13 +5810,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="127"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="129"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="103"/>
     </row>
     <row r="43" spans="1:13" ht="23.25">
-      <c r="A43" s="117"/>
+      <c r="A43" s="96"/>
       <c r="C43" s="35" t="s">
         <v>66</v>
       </c>
@@ -6938,13 +5826,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="130"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="132"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
     </row>
     <row r="44" spans="1:13" ht="23.25">
-      <c r="A44" s="118"/>
+      <c r="A44" s="97"/>
       <c r="C44" s="35" t="s">
         <v>67</v>
       </c>
@@ -6954,10 +5842,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="133"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="135"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="109"/>
     </row>
     <row r="45" spans="1:13">
       <c r="E45" s="50"/>
@@ -6965,7 +5853,7 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="23.25">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="95" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6977,13 +5865,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="112"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="114"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13" ht="31.5">
-      <c r="A47" s="117"/>
+      <c r="A47" s="96"/>
       <c r="C47" s="35" t="s">
         <v>117</v>
       </c>
@@ -6993,13 +5881,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="112"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="114"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="133"/>
     </row>
     <row r="48" spans="1:13" ht="31.5">
-      <c r="A48" s="117"/>
+      <c r="A48" s="96"/>
       <c r="C48" s="35" t="s">
         <v>118</v>
       </c>
@@ -7009,13 +5897,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="114"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="133"/>
     </row>
     <row r="49" spans="1:13" ht="23.25">
-      <c r="A49" s="117"/>
+      <c r="A49" s="96"/>
       <c r="C49" s="35" t="s">
         <v>70</v>
       </c>
@@ -7025,13 +5913,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="112"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="114"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="133"/>
     </row>
     <row r="50" spans="1:13" ht="27" customHeight="1">
-      <c r="A50" s="118"/>
+      <c r="A50" s="97"/>
       <c r="C50" s="35" t="s">
         <v>104</v>
       </c>
@@ -7041,10 +5929,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J50" s="112"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="114"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="133"/>
     </row>
     <row r="51" spans="1:13">
       <c r="E51" s="50"/>
@@ -7052,7 +5940,7 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:13" ht="23.25">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="95" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="35" t="s">
@@ -7064,13 +5952,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J52" s="127"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="129"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="103"/>
     </row>
     <row r="53" spans="1:13" ht="23.25">
-      <c r="A53" s="117"/>
+      <c r="A53" s="96"/>
       <c r="C53" s="35" t="s">
         <v>122</v>
       </c>
@@ -7080,13 +5968,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="130"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="132"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
     </row>
     <row r="54" spans="1:13" ht="23.25">
-      <c r="A54" s="117"/>
+      <c r="A54" s="96"/>
       <c r="C54" s="35" t="s">
         <v>73</v>
       </c>
@@ -7096,13 +5984,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J54" s="130"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="132"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
     </row>
     <row r="55" spans="1:13" ht="31.5">
-      <c r="A55" s="118"/>
+      <c r="A55" s="97"/>
       <c r="C55" s="35" t="s">
         <v>123</v>
       </c>
@@ -7112,10 +6000,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J55" s="133"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="135"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="109"/>
     </row>
     <row r="56" spans="1:13">
       <c r="E56" s="50"/>
@@ -7123,7 +6011,7 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:13" ht="31.5">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="95" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="35" t="s">
@@ -7135,13 +6023,13 @@
         <f t="shared" ref="H57:H67" si="1">COUNTIF(E57:F57,"r")</f>
         <v>0</v>
       </c>
-      <c r="J57" s="112"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="114"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="133"/>
     </row>
     <row r="58" spans="1:13" ht="31.5">
-      <c r="A58" s="117"/>
+      <c r="A58" s="96"/>
       <c r="C58" s="35" t="s">
         <v>77</v>
       </c>
@@ -7151,13 +6039,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="112"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="114"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="133"/>
     </row>
     <row r="59" spans="1:13" ht="31.5">
-      <c r="A59" s="117"/>
+      <c r="A59" s="96"/>
       <c r="C59" s="35" t="s">
         <v>126</v>
       </c>
@@ -7167,13 +6055,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="112"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="114"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="133"/>
     </row>
     <row r="60" spans="1:13" ht="23.25">
-      <c r="A60" s="117"/>
+      <c r="A60" s="96"/>
       <c r="C60" s="35" t="s">
         <v>79</v>
       </c>
@@ -7183,13 +6071,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="112"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="114"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="133"/>
     </row>
     <row r="61" spans="1:13" ht="31.5">
-      <c r="A61" s="118"/>
+      <c r="A61" s="97"/>
       <c r="C61" s="35" t="s">
         <v>127</v>
       </c>
@@ -7199,10 +6087,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="112"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="114"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="133"/>
     </row>
     <row r="62" spans="1:13">
       <c r="E62" s="50"/>
@@ -7210,7 +6098,7 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="95" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="35" t="s">
@@ -7222,13 +6110,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="155"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="157"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="100"/>
     </row>
     <row r="64" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A64" s="117"/>
+      <c r="A64" s="96"/>
       <c r="C64" s="35" t="s">
         <v>77</v>
       </c>
@@ -7238,13 +6126,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="155"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="157"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="100"/>
     </row>
     <row r="65" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A65" s="117"/>
+      <c r="A65" s="96"/>
       <c r="C65" s="35" t="s">
         <v>129</v>
       </c>
@@ -7254,13 +6142,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J65" s="155"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="157"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="100"/>
     </row>
     <row r="66" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A66" s="117"/>
+      <c r="A66" s="96"/>
       <c r="C66" s="35" t="s">
         <v>79</v>
       </c>
@@ -7270,13 +6158,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="155"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="157"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="100"/>
     </row>
     <row r="67" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A67" s="118"/>
+      <c r="A67" s="97"/>
       <c r="C67" s="35" t="s">
         <v>127</v>
       </c>
@@ -7286,10 +6174,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J67" s="155"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="156"/>
-      <c r="M67" s="157"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="99"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="100"/>
     </row>
     <row r="68" spans="1:13">
       <c r="E68" s="50"/>
@@ -7309,10 +6197,10 @@
         <f t="shared" ref="H69" si="2">COUNTIF(E69:F69,"r")</f>
         <v>0</v>
       </c>
-      <c r="J69" s="112"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="114"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="133"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
       <c r="E70" s="50"/>
@@ -7333,7 +6221,7 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="23.25">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="95" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="35" t="s">
@@ -7345,13 +6233,13 @@
         <f t="shared" ref="H73:H93" si="3">COUNTIF(E73:F73,"r")</f>
         <v>0</v>
       </c>
-      <c r="J73" s="112"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="114"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="133"/>
     </row>
     <row r="74" spans="1:13" ht="31.5">
-      <c r="A74" s="117"/>
+      <c r="A74" s="96"/>
       <c r="C74" s="35" t="s">
         <v>91</v>
       </c>
@@ -7361,13 +6249,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J74" s="112"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="114"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="133"/>
     </row>
     <row r="75" spans="1:13" ht="31.5">
-      <c r="A75" s="117"/>
+      <c r="A75" s="96"/>
       <c r="C75" s="35" t="s">
         <v>92</v>
       </c>
@@ -7377,13 +6265,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J75" s="173"/>
-      <c r="K75" s="174"/>
-      <c r="L75" s="174"/>
-      <c r="M75" s="175"/>
+      <c r="J75" s="170"/>
+      <c r="K75" s="171"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="172"/>
     </row>
     <row r="76" spans="1:13" ht="23.25">
-      <c r="A76" s="117"/>
+      <c r="A76" s="96"/>
       <c r="C76" s="35" t="s">
         <v>93</v>
       </c>
@@ -7393,13 +6281,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J76" s="112"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113"/>
-      <c r="M76" s="114"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="133"/>
     </row>
     <row r="77" spans="1:13" ht="31.5">
-      <c r="A77" s="117"/>
+      <c r="A77" s="96"/>
       <c r="C77" s="35" t="s">
         <v>94</v>
       </c>
@@ -7409,13 +6297,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J77" s="112"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="114"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="132"/>
+      <c r="L77" s="132"/>
+      <c r="M77" s="133"/>
     </row>
     <row r="78" spans="1:13" ht="204.75">
-      <c r="A78" s="117"/>
+      <c r="A78" s="96"/>
       <c r="C78" s="35" t="s">
         <v>164</v>
       </c>
@@ -7425,13 +6313,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J78" s="112"/>
-      <c r="K78" s="113"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="114"/>
+      <c r="J78" s="131"/>
+      <c r="K78" s="132"/>
+      <c r="L78" s="132"/>
+      <c r="M78" s="133"/>
     </row>
     <row r="79" spans="1:13" ht="47.25">
-      <c r="A79" s="117"/>
+      <c r="A79" s="96"/>
       <c r="C79" s="35" t="s">
         <v>131</v>
       </c>
@@ -7441,13 +6329,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J79" s="112"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="114"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="132"/>
+      <c r="L79" s="132"/>
+      <c r="M79" s="133"/>
     </row>
     <row r="80" spans="1:13" ht="126">
-      <c r="A80" s="117"/>
+      <c r="A80" s="96"/>
       <c r="C80" s="35" t="s">
         <v>132</v>
       </c>
@@ -7457,13 +6345,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J80" s="112"/>
-      <c r="K80" s="113"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="114"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="133"/>
     </row>
     <row r="81" spans="1:13" ht="31.5">
-      <c r="A81" s="117"/>
+      <c r="A81" s="96"/>
       <c r="C81" s="35" t="s">
         <v>95</v>
       </c>
@@ -7473,13 +6361,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J81" s="112"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="114"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="133"/>
     </row>
     <row r="82" spans="1:13" ht="31.5">
-      <c r="A82" s="118"/>
+      <c r="A82" s="97"/>
       <c r="C82" s="35" t="s">
         <v>133</v>
       </c>
@@ -7489,10 +6377,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J82" s="112"/>
-      <c r="K82" s="113"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="114"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="132"/>
+      <c r="L82" s="132"/>
+      <c r="M82" s="133"/>
     </row>
     <row r="83" spans="1:13">
       <c r="E83" s="50"/>
@@ -7500,7 +6388,7 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:13" ht="23.25">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="95" t="s">
         <v>143</v>
       </c>
       <c r="C84" s="35" t="s">
@@ -7512,13 +6400,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J84" s="173"/>
-      <c r="K84" s="174"/>
-      <c r="L84" s="174"/>
-      <c r="M84" s="175"/>
+      <c r="J84" s="170"/>
+      <c r="K84" s="171"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="172"/>
     </row>
     <row r="85" spans="1:13" ht="23.25">
-      <c r="A85" s="117"/>
+      <c r="A85" s="96"/>
       <c r="C85" s="35" t="s">
         <v>136</v>
       </c>
@@ -7528,13 +6416,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J85" s="173"/>
-      <c r="K85" s="174"/>
-      <c r="L85" s="174"/>
-      <c r="M85" s="175"/>
+      <c r="J85" s="170"/>
+      <c r="K85" s="171"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="172"/>
     </row>
     <row r="86" spans="1:13" ht="23.25">
-      <c r="A86" s="117"/>
+      <c r="A86" s="96"/>
       <c r="C86" s="35" t="s">
         <v>137</v>
       </c>
@@ -7544,13 +6432,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J86" s="173"/>
-      <c r="K86" s="174"/>
-      <c r="L86" s="174"/>
-      <c r="M86" s="175"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="172"/>
     </row>
     <row r="87" spans="1:13" ht="23.25">
-      <c r="A87" s="117"/>
+      <c r="A87" s="96"/>
       <c r="C87" s="35" t="s">
         <v>138</v>
       </c>
@@ -7560,13 +6448,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J87" s="173"/>
-      <c r="K87" s="174"/>
-      <c r="L87" s="174"/>
-      <c r="M87" s="175"/>
+      <c r="J87" s="170"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="172"/>
     </row>
     <row r="88" spans="1:13" ht="63">
-      <c r="A88" s="117"/>
+      <c r="A88" s="96"/>
       <c r="C88" s="35" t="s">
         <v>139</v>
       </c>
@@ -7576,13 +6464,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J88" s="173"/>
-      <c r="K88" s="174"/>
-      <c r="L88" s="174"/>
-      <c r="M88" s="175"/>
+      <c r="J88" s="170"/>
+      <c r="K88" s="171"/>
+      <c r="L88" s="171"/>
+      <c r="M88" s="172"/>
     </row>
     <row r="89" spans="1:13" ht="47.25">
-      <c r="A89" s="117"/>
+      <c r="A89" s="96"/>
       <c r="C89" s="35" t="s">
         <v>140</v>
       </c>
@@ -7592,13 +6480,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J89" s="173"/>
-      <c r="K89" s="174"/>
-      <c r="L89" s="174"/>
-      <c r="M89" s="175"/>
+      <c r="J89" s="170"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="172"/>
     </row>
     <row r="90" spans="1:13" ht="31.5">
-      <c r="A90" s="117"/>
+      <c r="A90" s="96"/>
       <c r="C90" s="35" t="s">
         <v>141</v>
       </c>
@@ -7608,13 +6496,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J90" s="173"/>
-      <c r="K90" s="174"/>
-      <c r="L90" s="174"/>
-      <c r="M90" s="175"/>
+      <c r="J90" s="170"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="172"/>
     </row>
     <row r="91" spans="1:13" ht="31.5">
-      <c r="A91" s="118"/>
+      <c r="A91" s="97"/>
       <c r="C91" s="35" t="s">
         <v>142</v>
       </c>
@@ -7624,10 +6512,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J91" s="173"/>
-      <c r="K91" s="174"/>
-      <c r="L91" s="174"/>
-      <c r="M91" s="175"/>
+      <c r="J91" s="170"/>
+      <c r="K91" s="171"/>
+      <c r="L91" s="171"/>
+      <c r="M91" s="172"/>
     </row>
     <row r="92" spans="1:13">
       <c r="E92" s="50"/>
@@ -7647,10 +6535,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J93" s="112"/>
-      <c r="K93" s="113"/>
-      <c r="L93" s="113"/>
-      <c r="M93" s="114"/>
+      <c r="J93" s="131"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="133"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="E94" s="50"/>
@@ -7683,10 +6571,10 @@
         <f t="shared" ref="H97" si="4">COUNTIF(E97:F97,"r")</f>
         <v>0</v>
       </c>
-      <c r="J97" s="112"/>
-      <c r="K97" s="113"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="114"/>
+      <c r="J97" s="131"/>
+      <c r="K97" s="132"/>
+      <c r="L97" s="132"/>
+      <c r="M97" s="133"/>
     </row>
     <row r="98" spans="1:13">
       <c r="E98" s="50"/>
@@ -7706,10 +6594,10 @@
         <f t="shared" ref="H99" si="5">COUNTIF(E99:F99,"r")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="112"/>
-      <c r="K99" s="113"/>
-      <c r="L99" s="113"/>
-      <c r="M99" s="114"/>
+      <c r="J99" s="131"/>
+      <c r="K99" s="132"/>
+      <c r="L99" s="132"/>
+      <c r="M99" s="133"/>
     </row>
     <row r="100" spans="1:13">
       <c r="E100" s="50"/>
@@ -7729,13 +6617,174 @@
         <f t="shared" ref="H101" si="6">COUNTIF(E101:F101,"r")</f>
         <v>0</v>
       </c>
-      <c r="J101" s="112"/>
-      <c r="K101" s="113"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="114"/>
+      <c r="J101" s="131"/>
+      <c r="K101" s="132"/>
+      <c r="L101" s="132"/>
+      <c r="M101" s="133"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="B103" s="189"/>
+      <c r="C103" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="182"/>
+      <c r="G103" s="182"/>
+      <c r="H103" s="182"/>
+      <c r="I103" s="182"/>
+      <c r="J103" s="182"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="C104" s="183"/>
+      <c r="E104" s="181"/>
+      <c r="F104" s="181"/>
+      <c r="G104" s="181"/>
+      <c r="H104" s="181"/>
+      <c r="I104" s="181"/>
+      <c r="J104" s="181"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="C105" s="183"/>
+      <c r="E105" s="181"/>
+      <c r="F105" s="181"/>
+      <c r="G105" s="181"/>
+      <c r="H105" s="181"/>
+      <c r="I105" s="181"/>
+      <c r="J105" s="181"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="C106" s="183"/>
+      <c r="E106" s="181"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="181"/>
+      <c r="H106" s="181"/>
+      <c r="I106" s="181"/>
+      <c r="J106" s="181"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="C107" s="183"/>
+      <c r="E107" s="181"/>
+      <c r="F107" s="181"/>
+      <c r="G107" s="181"/>
+      <c r="H107" s="181"/>
+      <c r="I107" s="181"/>
+      <c r="J107" s="181"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="C108" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="192"/>
+      <c r="E108" s="188" t="s">
+        <v>240</v>
+      </c>
+      <c r="F108" s="188"/>
+      <c r="G108" s="188"/>
+      <c r="H108" s="188"/>
+      <c r="I108" s="188"/>
+      <c r="J108" s="188"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="C109" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" s="50"/>
+      <c r="E109" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="183"/>
+      <c r="G109" s="183"/>
+      <c r="H109" s="183"/>
+      <c r="I109" s="183"/>
+      <c r="J109" s="183"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="C110" s="183"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="183"/>
+      <c r="F110" s="183"/>
+      <c r="G110" s="183"/>
+      <c r="H110" s="183"/>
+      <c r="I110" s="183"/>
+      <c r="J110" s="183"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="C112" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="80">
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E104:J107"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E109:J110"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="J42:M44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="J52:M55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="J97:M97"/>
     <mergeCell ref="J99:M99"/>
@@ -7749,67 +6798,6 @@
     <mergeCell ref="J89:M89"/>
     <mergeCell ref="J90:M90"/>
     <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="J52:M55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="J42:M44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:H31">
     <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThan">
@@ -7938,10 +6926,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A2:N122"/>
+  <dimension ref="A2:N131"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A122" zoomScale="81" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7965,21 +6953,21 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:14" ht="27" thickBot="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
@@ -7997,21 +6985,21 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="168"/>
     </row>
     <row r="10" spans="1:14">
       <c r="L10" s="3"/>
@@ -8024,16 +7012,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="16"/>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="162"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="2"/>
@@ -8042,21 +7030,21 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="166" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
@@ -8072,16 +7060,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="74"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
     </row>
     <row r="16" spans="1:14" ht="9.75" customHeight="1">
       <c r="A16" s="18"/>
@@ -8094,16 +7082,16 @@
       <c r="B17" s="9"/>
       <c r="C17" s="74"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="153"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="10"/>
@@ -8119,21 +7107,21 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="107.25" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="159"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
@@ -8146,16 +7134,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="75"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="162"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="2"/>
@@ -8163,21 +7151,21 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" thickBot="1">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="168"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" thickBot="1">
       <c r="A24" s="13"/>
@@ -8191,42 +7179,42 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="138" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="H25" s="100" t="s">
+      <c r="F25" s="141"/>
+      <c r="H25" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="144"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="101"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="137"/>
+      <c r="C26" s="139"/>
       <c r="E26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="H26" s="137"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" thickBot="1">
       <c r="A27" s="21"/>
@@ -8253,7 +7241,7 @@
       <c r="M28" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="23.25">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="173" t="s">
         <v>231</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -8265,13 +7253,13 @@
         <f>COUNTIF(E30:F30,"r")</f>
         <v>0</v>
       </c>
-      <c r="J30" s="112"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="133"/>
     </row>
     <row r="31" spans="1:13" ht="31.5">
-      <c r="A31" s="172"/>
+      <c r="A31" s="175"/>
       <c r="C31" s="35" t="s">
         <v>229</v>
       </c>
@@ -8281,13 +7269,13 @@
         <f>COUNTIF(E31:F31,"r")</f>
         <v>0</v>
       </c>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
     </row>
     <row r="32" spans="1:13" ht="31.5">
-      <c r="A32" s="172"/>
+      <c r="A32" s="175"/>
       <c r="C32" s="35" t="s">
         <v>228</v>
       </c>
@@ -8297,13 +7285,13 @@
         <f>COUNTIF(E32:F32,"r")</f>
         <v>0</v>
       </c>
-      <c r="J32" s="112"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="114"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="133"/>
     </row>
     <row r="33" spans="1:13" ht="23.25">
-      <c r="A33" s="172"/>
+      <c r="A33" s="175"/>
       <c r="C33" s="35" t="s">
         <v>227</v>
       </c>
@@ -8313,13 +7301,13 @@
         <f>COUNTIF(E33:F33,"r")</f>
         <v>0</v>
       </c>
-      <c r="J33" s="112"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="114"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="133"/>
     </row>
     <row r="34" spans="1:13" ht="31.5">
-      <c r="A34" s="171"/>
+      <c r="A34" s="174"/>
       <c r="C34" s="35" t="s">
         <v>226</v>
       </c>
@@ -8329,13 +7317,13 @@
         <f>COUNTIF(E34:F34,"r")</f>
         <v>0</v>
       </c>
-      <c r="J34" s="112"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="114"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="133"/>
     </row>
     <row r="36" spans="1:13" ht="31.5">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="173" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -8347,13 +7335,13 @@
         <f>COUNTIF(E36:F36,"r")</f>
         <v>0</v>
       </c>
-      <c r="J36" s="112"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="114"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="133"/>
     </row>
     <row r="37" spans="1:13" ht="31.5">
-      <c r="A37" s="172"/>
+      <c r="A37" s="175"/>
       <c r="C37" s="35" t="s">
         <v>223</v>
       </c>
@@ -8363,13 +7351,13 @@
         <f>COUNTIF(E37:F37,"r")</f>
         <v>0</v>
       </c>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="133"/>
     </row>
     <row r="38" spans="1:13" ht="23.25">
-      <c r="A38" s="171"/>
+      <c r="A38" s="174"/>
       <c r="C38" s="35" t="s">
         <v>212</v>
       </c>
@@ -8379,13 +7367,13 @@
         <f>COUNTIF(E38:F38,"r")</f>
         <v>0</v>
       </c>
-      <c r="J38" s="112"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="114"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="40" spans="1:13" ht="27" customHeight="1">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="95" t="s">
         <v>222</v>
       </c>
       <c r="C40" s="35" t="s">
@@ -8397,13 +7385,13 @@
         <f t="shared" ref="H40:H49" si="0">COUNTIF(E40:F40,"r")</f>
         <v>0</v>
       </c>
-      <c r="J40" s="112"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="114"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="133"/>
     </row>
     <row r="41" spans="1:13" ht="31.5">
-      <c r="A41" s="117"/>
+      <c r="A41" s="96"/>
       <c r="C41" s="35" t="s">
         <v>220</v>
       </c>
@@ -8413,13 +7401,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="112"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="133"/>
     </row>
     <row r="42" spans="1:13" ht="23.25">
-      <c r="A42" s="117"/>
+      <c r="A42" s="96"/>
       <c r="C42" s="35" t="s">
         <v>219</v>
       </c>
@@ -8429,13 +7417,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="112"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="114"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="133"/>
     </row>
     <row r="43" spans="1:13" ht="23.25">
-      <c r="A43" s="117"/>
+      <c r="A43" s="96"/>
       <c r="C43" s="35" t="s">
         <v>218</v>
       </c>
@@ -8445,13 +7433,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="112"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="114"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="133"/>
     </row>
     <row r="44" spans="1:13" ht="23.25">
-      <c r="A44" s="117"/>
+      <c r="A44" s="96"/>
       <c r="C44" s="35" t="s">
         <v>217</v>
       </c>
@@ -8461,13 +7449,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="112"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="114"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="133"/>
     </row>
     <row r="45" spans="1:13" ht="23.25">
-      <c r="A45" s="117"/>
+      <c r="A45" s="96"/>
       <c r="C45" s="35" t="s">
         <v>216</v>
       </c>
@@ -8477,13 +7465,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="112"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="133"/>
     </row>
     <row r="46" spans="1:13" ht="78.75">
-      <c r="A46" s="117"/>
+      <c r="A46" s="96"/>
       <c r="C46" s="35" t="s">
         <v>215</v>
       </c>
@@ -8493,13 +7481,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="112"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="114"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13" ht="23.25">
-      <c r="A47" s="117"/>
+      <c r="A47" s="96"/>
       <c r="C47" s="35" t="s">
         <v>214</v>
       </c>
@@ -8509,13 +7497,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="112"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="114"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="133"/>
     </row>
     <row r="48" spans="1:13" ht="23.25">
-      <c r="A48" s="117"/>
+      <c r="A48" s="96"/>
       <c r="C48" s="35" t="s">
         <v>213</v>
       </c>
@@ -8525,13 +7513,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="114"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="133"/>
     </row>
     <row r="49" spans="1:13" ht="23.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="97"/>
       <c r="C49" s="35" t="s">
         <v>212</v>
       </c>
@@ -8541,10 +7529,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="112"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="114"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="133"/>
     </row>
     <row r="50" spans="1:13" ht="24" thickBot="1">
       <c r="A50" s="36"/>
@@ -8569,7 +7557,7 @@
       <c r="M51" s="8"/>
     </row>
     <row r="53" spans="1:13" ht="31.5">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="95" t="s">
         <v>211</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -8581,13 +7569,13 @@
         <f>COUNTIF(E53:F53,"r")</f>
         <v>0</v>
       </c>
-      <c r="J53" s="112"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="114"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="133"/>
     </row>
     <row r="54" spans="1:13" ht="23.25">
-      <c r="A54" s="117"/>
+      <c r="A54" s="96"/>
       <c r="C54" s="35" t="s">
         <v>209</v>
       </c>
@@ -8597,13 +7585,13 @@
         <f>COUNTIF(E54:F54,"r")</f>
         <v>0</v>
       </c>
-      <c r="J54" s="112"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="114"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="133"/>
     </row>
     <row r="55" spans="1:13" ht="23.25">
-      <c r="A55" s="117"/>
+      <c r="A55" s="96"/>
       <c r="C55" s="35" t="s">
         <v>208</v>
       </c>
@@ -8613,13 +7601,13 @@
         <f>COUNTIF(E55:F55,"r")</f>
         <v>0</v>
       </c>
-      <c r="J55" s="112"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="114"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="133"/>
     </row>
     <row r="56" spans="1:13" ht="31.5">
-      <c r="A56" s="117"/>
+      <c r="A56" s="96"/>
       <c r="C56" s="35" t="s">
         <v>207</v>
       </c>
@@ -8629,13 +7617,13 @@
         <f>COUNTIF(E56:F56,"r")</f>
         <v>0</v>
       </c>
-      <c r="J56" s="112"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="114"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="133"/>
     </row>
     <row r="57" spans="1:13" ht="23.25">
-      <c r="A57" s="118"/>
+      <c r="A57" s="97"/>
       <c r="C57" s="35" t="s">
         <v>54</v>
       </c>
@@ -8645,17 +7633,17 @@
         <f>COUNTIF(E57:F57,"r")</f>
         <v>0</v>
       </c>
-      <c r="J57" s="112"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="114"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="133"/>
     </row>
     <row r="58" spans="1:13">
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:13" ht="23.25">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="95" t="s">
         <v>206</v>
       </c>
       <c r="C59" s="35" t="s">
@@ -8667,13 +7655,13 @@
         <f>COUNTIF(E59:F59,"r")</f>
         <v>0</v>
       </c>
-      <c r="J59" s="112"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="114"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="133"/>
     </row>
     <row r="60" spans="1:13" ht="31.5">
-      <c r="A60" s="117"/>
+      <c r="A60" s="96"/>
       <c r="C60" s="35" t="s">
         <v>204</v>
       </c>
@@ -8683,13 +7671,13 @@
         <f>COUNTIF(E60:F60,"r")</f>
         <v>0</v>
       </c>
-      <c r="J60" s="112"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="114"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="133"/>
     </row>
     <row r="61" spans="1:13" ht="23.25">
-      <c r="A61" s="117"/>
+      <c r="A61" s="96"/>
       <c r="C61" s="35" t="s">
         <v>203</v>
       </c>
@@ -8699,13 +7687,13 @@
         <f>COUNTIF(E61:F61,"r")</f>
         <v>0</v>
       </c>
-      <c r="J61" s="112"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="114"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="133"/>
     </row>
     <row r="62" spans="1:13" ht="31.5">
-      <c r="A62" s="117"/>
+      <c r="A62" s="96"/>
       <c r="C62" s="35" t="s">
         <v>202</v>
       </c>
@@ -8715,13 +7703,13 @@
         <f>COUNTIF(E62:F62,"r")</f>
         <v>0</v>
       </c>
-      <c r="J62" s="112"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="114"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="133"/>
     </row>
     <row r="63" spans="1:13" ht="31.5">
-      <c r="A63" s="118"/>
+      <c r="A63" s="97"/>
       <c r="C63" s="35" t="s">
         <v>58</v>
       </c>
@@ -8731,10 +7719,10 @@
         <f>COUNTIF(E63:F63,"r")</f>
         <v>0</v>
       </c>
-      <c r="J63" s="112"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="114"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="133"/>
     </row>
     <row r="64" spans="1:13" ht="24" thickBot="1">
       <c r="A64" s="36"/>
@@ -8763,7 +7751,7 @@
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:13" ht="23.25">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="95" t="s">
         <v>200</v>
       </c>
       <c r="C67" s="35" t="s">
@@ -8775,13 +7763,13 @@
         <f>COUNTIF(E67:F67,"r")</f>
         <v>0</v>
       </c>
-      <c r="J67" s="112"/>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="114"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="133"/>
     </row>
     <row r="68" spans="1:13" ht="31.5">
-      <c r="A68" s="117"/>
+      <c r="A68" s="96"/>
       <c r="C68" s="35" t="s">
         <v>186</v>
       </c>
@@ -8791,13 +7779,13 @@
         <f>COUNTIF(E68:F68,"r")</f>
         <v>0</v>
       </c>
-      <c r="J68" s="112"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="114"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="133"/>
     </row>
     <row r="69" spans="1:13" ht="31.5">
-      <c r="A69" s="117"/>
+      <c r="A69" s="96"/>
       <c r="C69" s="35" t="s">
         <v>62</v>
       </c>
@@ -8807,13 +7795,13 @@
         <f>COUNTIF(E69:F69,"r")</f>
         <v>0</v>
       </c>
-      <c r="J69" s="112"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="114"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="133"/>
     </row>
     <row r="70" spans="1:13" ht="23.25">
-      <c r="A70" s="117"/>
+      <c r="A70" s="96"/>
       <c r="C70" s="35" t="s">
         <v>63</v>
       </c>
@@ -8823,13 +7811,13 @@
         <f>COUNTIF(E70:F70,"r")</f>
         <v>0</v>
       </c>
-      <c r="J70" s="112"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="114"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="133"/>
     </row>
     <row r="71" spans="1:13" ht="23.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="97"/>
       <c r="C71" s="35" t="s">
         <v>199</v>
       </c>
@@ -8839,17 +7827,17 @@
         <f>COUNTIF(E71:F71,"r")</f>
         <v>0</v>
       </c>
-      <c r="J71" s="112"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="114"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="133"/>
     </row>
     <row r="72" spans="1:13">
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="23.25">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="95" t="s">
         <v>198</v>
       </c>
       <c r="C73" s="35" t="s">
@@ -8861,13 +7849,13 @@
         <f t="shared" ref="H73:H82" si="1">COUNTIF(E73:F73,"r")</f>
         <v>0</v>
       </c>
-      <c r="J73" s="112"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="114"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="133"/>
     </row>
     <row r="74" spans="1:13" ht="31.5">
-      <c r="A74" s="117"/>
+      <c r="A74" s="96"/>
       <c r="C74" s="35" t="s">
         <v>186</v>
       </c>
@@ -8877,13 +7865,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J74" s="112"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="114"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="133"/>
     </row>
     <row r="75" spans="1:13" ht="31.5">
-      <c r="A75" s="117"/>
+      <c r="A75" s="96"/>
       <c r="C75" s="35" t="s">
         <v>197</v>
       </c>
@@ -8893,13 +7881,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J75" s="112"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="113"/>
-      <c r="M75" s="114"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="132"/>
+      <c r="L75" s="132"/>
+      <c r="M75" s="133"/>
     </row>
     <row r="76" spans="1:13" ht="23.25">
-      <c r="A76" s="117"/>
+      <c r="A76" s="96"/>
       <c r="C76" s="35" t="s">
         <v>70</v>
       </c>
@@ -8909,13 +7897,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="112"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113"/>
-      <c r="M76" s="114"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="133"/>
     </row>
     <row r="77" spans="1:13" ht="23.25">
-      <c r="A77" s="118"/>
+      <c r="A77" s="97"/>
       <c r="C77" s="35" t="s">
         <v>104</v>
       </c>
@@ -8925,10 +7913,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J77" s="112"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="114"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="132"/>
+      <c r="L77" s="132"/>
+      <c r="M77" s="133"/>
     </row>
     <row r="78" spans="1:13">
       <c r="E78" s="14"/>
@@ -8939,7 +7927,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="23.25">
-      <c r="A79" s="115" t="s">
+      <c r="A79" s="95" t="s">
         <v>196</v>
       </c>
       <c r="C79" s="35" t="s">
@@ -8951,13 +7939,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J79" s="112"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="114"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="132"/>
+      <c r="L79" s="132"/>
+      <c r="M79" s="133"/>
     </row>
     <row r="80" spans="1:13" ht="23.25">
-      <c r="A80" s="117"/>
+      <c r="A80" s="96"/>
       <c r="C80" s="35" t="s">
         <v>194</v>
       </c>
@@ -8967,13 +7955,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J80" s="112"/>
-      <c r="K80" s="113"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="114"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="133"/>
     </row>
     <row r="81" spans="1:13" ht="23.25">
-      <c r="A81" s="117"/>
+      <c r="A81" s="96"/>
       <c r="C81" s="35" t="s">
         <v>73</v>
       </c>
@@ -8983,13 +7971,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J81" s="173"/>
-      <c r="K81" s="174"/>
-      <c r="L81" s="174"/>
-      <c r="M81" s="175"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="172"/>
     </row>
     <row r="82" spans="1:13" ht="31.5">
-      <c r="A82" s="118"/>
+      <c r="A82" s="97"/>
       <c r="C82" s="35" t="s">
         <v>193</v>
       </c>
@@ -8999,17 +7987,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J82" s="112"/>
-      <c r="K82" s="113"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="114"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="132"/>
+      <c r="L82" s="132"/>
+      <c r="M82" s="133"/>
     </row>
     <row r="83" spans="1:13">
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:13" ht="23.25">
-      <c r="A84" s="179" t="s">
+      <c r="A84" s="176" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="73" t="s">
@@ -9021,13 +8009,13 @@
         <f>COUNTIF(E84:F84,"r")</f>
         <v>0</v>
       </c>
-      <c r="J84" s="112"/>
-      <c r="K84" s="113"/>
-      <c r="L84" s="113"/>
-      <c r="M84" s="114"/>
+      <c r="J84" s="131"/>
+      <c r="K84" s="132"/>
+      <c r="L84" s="132"/>
+      <c r="M84" s="133"/>
     </row>
     <row r="85" spans="1:13" ht="31.5">
-      <c r="A85" s="179"/>
+      <c r="A85" s="176"/>
       <c r="C85" s="59" t="s">
         <v>77</v>
       </c>
@@ -9037,13 +8025,13 @@
         <f>COUNTIF(E85:F85,"r")</f>
         <v>0</v>
       </c>
-      <c r="J85" s="112"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="114"/>
+      <c r="J85" s="131"/>
+      <c r="K85" s="132"/>
+      <c r="L85" s="132"/>
+      <c r="M85" s="133"/>
     </row>
     <row r="86" spans="1:13" ht="23.25">
-      <c r="A86" s="179"/>
+      <c r="A86" s="176"/>
       <c r="C86" s="35" t="s">
         <v>79</v>
       </c>
@@ -9053,13 +8041,13 @@
         <f>COUNTIF(E86:F86,"r")</f>
         <v>0</v>
       </c>
-      <c r="J86" s="112"/>
-      <c r="K86" s="113"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="114"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="132"/>
+      <c r="L86" s="132"/>
+      <c r="M86" s="133"/>
     </row>
     <row r="87" spans="1:13" ht="47.25">
-      <c r="A87" s="179"/>
+      <c r="A87" s="176"/>
       <c r="C87" s="35" t="s">
         <v>192</v>
       </c>
@@ -9069,17 +8057,17 @@
         <f>COUNTIF(E87:F87,"r")</f>
         <v>0</v>
       </c>
-      <c r="J87" s="173"/>
-      <c r="K87" s="174"/>
-      <c r="L87" s="174"/>
-      <c r="M87" s="175"/>
+      <c r="J87" s="170"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="172"/>
     </row>
     <row r="88" spans="1:13">
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:13" ht="23.25">
-      <c r="A89" s="180" t="s">
+      <c r="A89" s="177" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="73" t="s">
@@ -9091,13 +8079,13 @@
         <f>COUNTIF(E89:F89,"r")</f>
         <v>0</v>
       </c>
-      <c r="J89" s="112"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="114"/>
+      <c r="J89" s="131"/>
+      <c r="K89" s="132"/>
+      <c r="L89" s="132"/>
+      <c r="M89" s="133"/>
     </row>
     <row r="90" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A90" s="180"/>
+      <c r="A90" s="177"/>
       <c r="C90" s="59" t="s">
         <v>77</v>
       </c>
@@ -9107,13 +8095,13 @@
         <f>COUNTIF(E90:F90,"r")</f>
         <v>0</v>
       </c>
-      <c r="J90" s="112"/>
-      <c r="K90" s="113"/>
-      <c r="L90" s="113"/>
-      <c r="M90" s="114"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="132"/>
+      <c r="L90" s="132"/>
+      <c r="M90" s="133"/>
     </row>
     <row r="91" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A91" s="180"/>
+      <c r="A91" s="177"/>
       <c r="C91" s="35" t="s">
         <v>79</v>
       </c>
@@ -9123,13 +8111,13 @@
         <f>COUNTIF(E91:F91,"r")</f>
         <v>0</v>
       </c>
-      <c r="J91" s="112"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="113"/>
-      <c r="M91" s="114"/>
+      <c r="J91" s="131"/>
+      <c r="K91" s="132"/>
+      <c r="L91" s="132"/>
+      <c r="M91" s="133"/>
     </row>
     <row r="92" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A92" s="180"/>
+      <c r="A92" s="177"/>
       <c r="C92" s="35" t="s">
         <v>189</v>
       </c>
@@ -9139,10 +8127,10 @@
         <f>COUNTIF(E92:F92,"r")</f>
         <v>0</v>
       </c>
-      <c r="J92" s="173"/>
-      <c r="K92" s="174"/>
-      <c r="L92" s="174"/>
-      <c r="M92" s="175"/>
+      <c r="J92" s="170"/>
+      <c r="K92" s="171"/>
+      <c r="L92" s="171"/>
+      <c r="M92" s="172"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1">
       <c r="E93" s="14"/>
@@ -9161,10 +8149,10 @@
         <f>COUNTIF(E94:F94,"r")</f>
         <v>0</v>
       </c>
-      <c r="J94" s="112"/>
-      <c r="K94" s="113"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="114"/>
+      <c r="J94" s="131"/>
+      <c r="K94" s="132"/>
+      <c r="L94" s="132"/>
+      <c r="M94" s="133"/>
     </row>
     <row r="95" spans="1:13" ht="24" thickBot="1">
       <c r="A95" s="36"/>
@@ -9193,7 +8181,7 @@
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:13" ht="23.25">
-      <c r="A98" s="115" t="s">
+      <c r="A98" s="95" t="s">
         <v>187</v>
       </c>
       <c r="C98" s="35" t="s">
@@ -9205,13 +8193,13 @@
         <f>COUNTIF(E98:F98,"r")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="112"/>
-      <c r="K98" s="113"/>
-      <c r="L98" s="113"/>
-      <c r="M98" s="114"/>
+      <c r="J98" s="131"/>
+      <c r="K98" s="132"/>
+      <c r="L98" s="132"/>
+      <c r="M98" s="133"/>
     </row>
     <row r="99" spans="1:13" ht="31.5">
-      <c r="A99" s="117"/>
+      <c r="A99" s="96"/>
       <c r="C99" s="35" t="s">
         <v>186</v>
       </c>
@@ -9221,13 +8209,13 @@
         <f>COUNTIF(E99:F99,"r")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="112"/>
-      <c r="K99" s="113"/>
-      <c r="L99" s="113"/>
-      <c r="M99" s="114"/>
+      <c r="J99" s="131"/>
+      <c r="K99" s="132"/>
+      <c r="L99" s="132"/>
+      <c r="M99" s="133"/>
     </row>
     <row r="100" spans="1:13" ht="31.5">
-      <c r="A100" s="118"/>
+      <c r="A100" s="97"/>
       <c r="C100" s="35" t="s">
         <v>185</v>
       </c>
@@ -9237,17 +8225,17 @@
         <f>COUNTIF(E100:F100,"r")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="112"/>
-      <c r="K100" s="113"/>
-      <c r="L100" s="113"/>
-      <c r="M100" s="114"/>
+      <c r="J100" s="131"/>
+      <c r="K100" s="132"/>
+      <c r="L100" s="132"/>
+      <c r="M100" s="133"/>
     </row>
     <row r="101" spans="1:13">
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:13" ht="31.5">
-      <c r="A102" s="115" t="s">
+      <c r="A102" s="95" t="s">
         <v>176</v>
       </c>
       <c r="C102" s="35" t="s">
@@ -9259,13 +8247,13 @@
         <f t="shared" ref="H102:H109" si="2">COUNTIF(E102:F102,"r")</f>
         <v>0</v>
       </c>
-      <c r="J102" s="112"/>
-      <c r="K102" s="113"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="114"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="132"/>
+      <c r="L102" s="132"/>
+      <c r="M102" s="133"/>
     </row>
     <row r="103" spans="1:13" ht="31.5">
-      <c r="A103" s="117"/>
+      <c r="A103" s="96"/>
       <c r="C103" s="35" t="s">
         <v>183</v>
       </c>
@@ -9275,13 +8263,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="112"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="114"/>
+      <c r="J103" s="131"/>
+      <c r="K103" s="132"/>
+      <c r="L103" s="132"/>
+      <c r="M103" s="133"/>
     </row>
     <row r="104" spans="1:13" ht="23.25">
-      <c r="A104" s="117"/>
+      <c r="A104" s="96"/>
       <c r="C104" s="35" t="s">
         <v>182</v>
       </c>
@@ -9291,13 +8279,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="112"/>
-      <c r="K104" s="113"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="114"/>
+      <c r="J104" s="131"/>
+      <c r="K104" s="132"/>
+      <c r="L104" s="132"/>
+      <c r="M104" s="133"/>
     </row>
     <row r="105" spans="1:13" ht="23.25">
-      <c r="A105" s="117"/>
+      <c r="A105" s="96"/>
       <c r="C105" s="35" t="s">
         <v>181</v>
       </c>
@@ -9307,13 +8295,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="112"/>
-      <c r="K105" s="113"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="114"/>
+      <c r="J105" s="131"/>
+      <c r="K105" s="132"/>
+      <c r="L105" s="132"/>
+      <c r="M105" s="133"/>
     </row>
     <row r="106" spans="1:13" ht="23.25">
-      <c r="A106" s="117"/>
+      <c r="A106" s="96"/>
       <c r="C106" s="35" t="s">
         <v>180</v>
       </c>
@@ -9323,13 +8311,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="112"/>
-      <c r="K106" s="113"/>
-      <c r="L106" s="113"/>
-      <c r="M106" s="114"/>
+      <c r="J106" s="131"/>
+      <c r="K106" s="132"/>
+      <c r="L106" s="132"/>
+      <c r="M106" s="133"/>
     </row>
     <row r="107" spans="1:13" ht="23.25">
-      <c r="A107" s="117"/>
+      <c r="A107" s="96"/>
       <c r="C107" s="35" t="s">
         <v>179</v>
       </c>
@@ -9339,13 +8327,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J107" s="112"/>
-      <c r="K107" s="113"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="114"/>
+      <c r="J107" s="131"/>
+      <c r="K107" s="132"/>
+      <c r="L107" s="132"/>
+      <c r="M107" s="133"/>
     </row>
     <row r="108" spans="1:13" ht="47.25">
-      <c r="A108" s="117"/>
+      <c r="A108" s="96"/>
       <c r="C108" s="35" t="s">
         <v>178</v>
       </c>
@@ -9355,13 +8343,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J108" s="112"/>
-      <c r="K108" s="113"/>
-      <c r="L108" s="113"/>
-      <c r="M108" s="114"/>
+      <c r="J108" s="131"/>
+      <c r="K108" s="132"/>
+      <c r="L108" s="132"/>
+      <c r="M108" s="133"/>
     </row>
     <row r="109" spans="1:13" ht="47.25">
-      <c r="A109" s="117"/>
+      <c r="A109" s="96"/>
       <c r="C109" s="35" t="s">
         <v>177</v>
       </c>
@@ -9371,13 +8359,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="112"/>
-      <c r="K109" s="113"/>
-      <c r="L109" s="113"/>
-      <c r="M109" s="114"/>
+      <c r="J109" s="131"/>
+      <c r="K109" s="132"/>
+      <c r="L109" s="132"/>
+      <c r="M109" s="133"/>
     </row>
     <row r="110" spans="1:13" ht="31.5">
-      <c r="A110" s="117"/>
+      <c r="A110" s="96"/>
       <c r="C110" s="35" t="s">
         <v>91</v>
       </c>
@@ -9387,13 +8375,13 @@
         <f t="shared" ref="H110:H115" si="3">COUNTIF(E110:F110,"r")</f>
         <v>0</v>
       </c>
-      <c r="J110" s="173"/>
-      <c r="K110" s="174"/>
-      <c r="L110" s="174"/>
-      <c r="M110" s="175"/>
+      <c r="J110" s="170"/>
+      <c r="K110" s="171"/>
+      <c r="L110" s="171"/>
+      <c r="M110" s="172"/>
     </row>
     <row r="111" spans="1:13" ht="31.5">
-      <c r="A111" s="117"/>
+      <c r="A111" s="96"/>
       <c r="C111" s="35" t="s">
         <v>92</v>
       </c>
@@ -9403,13 +8391,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J111" s="173"/>
-      <c r="K111" s="174"/>
-      <c r="L111" s="174"/>
-      <c r="M111" s="175"/>
+      <c r="J111" s="170"/>
+      <c r="K111" s="171"/>
+      <c r="L111" s="171"/>
+      <c r="M111" s="172"/>
     </row>
     <row r="112" spans="1:13" ht="23.25">
-      <c r="A112" s="118"/>
+      <c r="A112" s="97"/>
       <c r="C112" s="35" t="s">
         <v>93</v>
       </c>
@@ -9419,13 +8407,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J112" s="173"/>
-      <c r="K112" s="174"/>
-      <c r="L112" s="174"/>
-      <c r="M112" s="175"/>
+      <c r="J112" s="170"/>
+      <c r="K112" s="171"/>
+      <c r="L112" s="171"/>
+      <c r="M112" s="172"/>
     </row>
     <row r="113" spans="1:13" ht="204.75">
-      <c r="A113" s="115" t="s">
+      <c r="A113" s="95" t="s">
         <v>176</v>
       </c>
       <c r="C113" s="35" t="s">
@@ -9437,13 +8425,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J113" s="173"/>
-      <c r="K113" s="174"/>
-      <c r="L113" s="174"/>
-      <c r="M113" s="175"/>
+      <c r="J113" s="170"/>
+      <c r="K113" s="171"/>
+      <c r="L113" s="171"/>
+      <c r="M113" s="172"/>
     </row>
     <row r="114" spans="1:13" ht="47.25">
-      <c r="A114" s="117"/>
+      <c r="A114" s="96"/>
       <c r="C114" s="35" t="s">
         <v>174</v>
       </c>
@@ -9453,13 +8441,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J114" s="173"/>
-      <c r="K114" s="174"/>
-      <c r="L114" s="174"/>
-      <c r="M114" s="175"/>
+      <c r="J114" s="170"/>
+      <c r="K114" s="171"/>
+      <c r="L114" s="171"/>
+      <c r="M114" s="172"/>
     </row>
     <row r="115" spans="1:13" ht="126">
-      <c r="A115" s="117"/>
+      <c r="A115" s="96"/>
       <c r="C115" s="35" t="s">
         <v>173</v>
       </c>
@@ -9469,13 +8457,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J115" s="173"/>
-      <c r="K115" s="174"/>
-      <c r="L115" s="174"/>
-      <c r="M115" s="175"/>
+      <c r="J115" s="170"/>
+      <c r="K115" s="171"/>
+      <c r="L115" s="171"/>
+      <c r="M115" s="172"/>
     </row>
     <row r="116" spans="1:13" ht="31.5">
-      <c r="A116" s="118"/>
+      <c r="A116" s="97"/>
       <c r="C116" s="35" t="s">
         <v>95</v>
       </c>
@@ -9485,10 +8473,10 @@
         <f>COUNTIF(E116:F116,"r")</f>
         <v>0</v>
       </c>
-      <c r="J116" s="112"/>
-      <c r="K116" s="113"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="114"/>
+      <c r="J116" s="131"/>
+      <c r="K116" s="132"/>
+      <c r="L116" s="132"/>
+      <c r="M116" s="133"/>
     </row>
     <row r="117" spans="1:13" ht="24" thickBot="1">
       <c r="A117" s="21"/>
@@ -9525,10 +8513,10 @@
         <f>COUNTIF(E120:F120,"r")</f>
         <v>0</v>
       </c>
-      <c r="J120" s="112"/>
-      <c r="K120" s="113"/>
-      <c r="L120" s="113"/>
-      <c r="M120" s="114"/>
+      <c r="J120" s="131"/>
+      <c r="K120" s="132"/>
+      <c r="L120" s="132"/>
+      <c r="M120" s="133"/>
     </row>
     <row r="122" spans="1:13" ht="157.5">
       <c r="A122" s="64" t="s">
@@ -9543,77 +8531,124 @@
         <f>COUNTIF(E122:F122,"r")</f>
         <v>0</v>
       </c>
-      <c r="J122" s="176"/>
-      <c r="K122" s="177"/>
-      <c r="L122" s="177"/>
-      <c r="M122" s="178"/>
+      <c r="J122" s="178"/>
+      <c r="K122" s="179"/>
+      <c r="L122" s="179"/>
+      <c r="M122" s="180"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="C124" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="F124" s="182"/>
+      <c r="G124" s="182"/>
+      <c r="H124" s="182"/>
+      <c r="I124" s="182"/>
+      <c r="J124" s="182"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="C125" s="181"/>
+      <c r="E125" s="181"/>
+      <c r="F125" s="181"/>
+      <c r="G125" s="181"/>
+      <c r="H125" s="181"/>
+      <c r="I125" s="181"/>
+      <c r="J125" s="181"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="C126" s="181"/>
+      <c r="E126" s="181"/>
+      <c r="F126" s="181"/>
+      <c r="G126" s="181"/>
+      <c r="H126" s="181"/>
+      <c r="I126" s="181"/>
+      <c r="J126" s="181"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="C127" s="181"/>
+      <c r="E127" s="181"/>
+      <c r="F127" s="181"/>
+      <c r="G127" s="181"/>
+      <c r="H127" s="181"/>
+      <c r="I127" s="181"/>
+      <c r="J127" s="181"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="C128" s="181"/>
+      <c r="E128" s="181"/>
+      <c r="F128" s="181"/>
+      <c r="G128" s="181"/>
+      <c r="H128" s="181"/>
+      <c r="I128" s="181"/>
+      <c r="J128" s="181"/>
+    </row>
+    <row r="129" spans="3:10">
+      <c r="C129" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="E129" s="188" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" s="188"/>
+      <c r="G129" s="188"/>
+      <c r="H129" s="188"/>
+      <c r="I129" s="188"/>
+      <c r="J129" s="188"/>
+    </row>
+    <row r="130" spans="3:10">
+      <c r="C130" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" s="50"/>
+      <c r="E130" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="F130" s="183"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="183"/>
+      <c r="I130" s="183"/>
+      <c r="J130" s="183"/>
+    </row>
+    <row r="131" spans="3:10">
+      <c r="C131" s="183"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="183"/>
+      <c r="F131" s="183"/>
+      <c r="G131" s="183"/>
+      <c r="H131" s="183"/>
+      <c r="I131" s="183"/>
+      <c r="J131" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
+  <mergeCells count="109">
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="E125:J128"/>
+    <mergeCell ref="E129:J129"/>
+    <mergeCell ref="E130:J131"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="J105:M105"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="J107:M107"/>
     <mergeCell ref="J94:M94"/>
     <mergeCell ref="A98:A100"/>
     <mergeCell ref="J98:M98"/>
@@ -9634,25 +8669,70 @@
     <mergeCell ref="J91:M91"/>
     <mergeCell ref="J92:M92"/>
     <mergeCell ref="A89:A92"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="J105:M105"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:H34">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
@@ -9768,10 +8848,11 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="46" fitToHeight="3" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <pageSetup scale="45" fitToHeight="3" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="47" max="12" man="1"/>
     <brk id="71" max="12" man="1"/>
+    <brk id="114" max="12" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9792,23 +8873,23 @@
   <sheetData>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="168"/>
+      <c r="C2" s="87"/>
       <c r="E2" s="30"/>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="21">
       <c r="A3" s="8"/>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="161"/>
+      <c r="C3" s="77"/>
       <c r="E3" s="31"/>
       <c r="G3" s="28" t="s">
         <v>33</v>
@@ -9822,10 +8903,10 @@
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="8"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="79"/>
       <c r="E4" s="32"/>
       <c r="G4" s="28" t="s">
         <v>29</v>
@@ -9839,10 +8920,10 @@
     </row>
     <row r="5" spans="1:9" ht="21">
       <c r="A5" s="8"/>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="164"/>
+      <c r="C5" s="80"/>
       <c r="E5" s="33"/>
       <c r="G5" s="28" t="s">
         <v>28</v>
@@ -9856,10 +8937,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8"/>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="164"/>
+      <c r="C6" s="80"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:9">
